--- a/Proyecto Modulo 3.xlsx
+++ b/Proyecto Modulo 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/antonio_ortegon_iteso_mx/Documents/3 semestre/Simulación matematica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{533C5711-4F84-4C21-A627-64CCDCFEB801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E46A27-E6AE-4D50-AF68-5D71F46E6C21}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{533C5711-4F84-4C21-A627-64CCDCFEB801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41F6599A-9F3B-46B6-8050-7AFE01CE7996}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F8C9F64D-2923-428B-A78F-5555058995C2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Oficina</t>
   </si>
@@ -48,18 +48,6 @@
     <t>Lunes</t>
   </si>
   <si>
-    <t>Martes</t>
-  </si>
-  <si>
-    <t>Miércoles</t>
-  </si>
-  <si>
-    <t>Jueves</t>
-  </si>
-  <si>
-    <t>Viernes</t>
-  </si>
-  <si>
     <t>Naucalpan</t>
   </si>
   <si>
@@ -67,6 +55,27 @@
   </si>
   <si>
     <t>Satelite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miercoles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jueves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viernes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficina </t>
+  </si>
+  <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lomas </t>
   </si>
 </sst>
 </file>
@@ -469,16 +478,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -503,7 +512,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
@@ -550,7 +559,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>12</v>
@@ -574,7 +583,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>25</v>
@@ -603,24 +612,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B47B49D-A5C1-4D2A-9016-6AD1090893D6}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -628,10 +636,15 @@
       <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>500</v>
@@ -649,8 +662,8 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -669,9 +682,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>400</v>
@@ -689,9 +702,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -709,9 +722,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>450</v>

--- a/Proyecto Modulo 3.xlsx
+++ b/Proyecto Modulo 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/antonio_ortegon_iteso_mx/Documents/3 semestre/Simulación matematica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{533C5711-4F84-4C21-A627-64CCDCFEB801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41F6599A-9F3B-46B6-8050-7AFE01CE7996}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{533C5711-4F84-4C21-A627-64CCDCFEB801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF7AEC30-865C-4799-88AC-50973EAF4538}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F8C9F64D-2923-428B-A78F-5555058995C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8C9F64D-2923-428B-A78F-5555058995C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Obras" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Oficina</t>
   </si>
@@ -67,15 +67,6 @@
   </si>
   <si>
     <t xml:space="preserve">Viernes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oficina </t>
-  </si>
-  <si>
-    <t>Santa Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lomas </t>
   </si>
 </sst>
 </file>
@@ -466,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49954718-506A-4503-85D2-D3DF6F885830}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B47B49D-A5C1-4D2A-9016-6AD1090893D6}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,8 +634,8 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>500</v>
@@ -663,7 +654,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -683,8 +674,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="A4" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>400</v>
@@ -703,8 +694,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
+      <c r="A5" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -723,8 +714,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>450</v>
